--- a/open_excel/new_kp_shablon.xlsx
+++ b/open_excel/new_kp_shablon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\brazel\open_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C63920-5C3F-4AA9-937A-FBF012FAFBD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233042A6-9977-409C-AFA8-F1FC29AF0A80}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>ООО  «Торговый дом «АНМАКС»</t>
   </si>
   <si>
-    <t>Tел.  / факс: +7 (495) 787-24-05</t>
-  </si>
-  <si>
     <t xml:space="preserve">г. Москва, Зеленоград, </t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Здравствуйте!</t>
+  </si>
+  <si>
+    <t>Tел.  / факс: +7 (495) 489-25-25</t>
   </si>
 </sst>
 </file>
@@ -308,6 +308,45 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -322,45 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,7 +702,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G5" sqref="G5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,141 +726,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
+      <c r="A1" s="13"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="27"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="1"/>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="1"/>
+      <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="29"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="1"/>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="30"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23" t="s">
+      <c r="M3" s="19"/>
+    </row>
+    <row r="5" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="5" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="G6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="G6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="s">
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="18" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="s">
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -874,88 +874,88 @@
       <c r="N13" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="C15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="C16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="11"/>
     </row>
     <row r="18" spans="3:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="J18" s="30"/>
+      <c r="K18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="12" t="s">
+      <c r="L18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="M18" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:M8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
